--- a/Regression_mterics_with_radius_0.008.xlsx
+++ b/Regression_mterics_with_radius_0.008.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8937898641624051</v>
+        <v>0.9039155943081556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985990368968497</v>
+        <v>0.9987679826329908</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9986485363288944</v>
+        <v>0.9988129942789321</v>
       </c>
       <c r="E2" t="n">
-        <v>0.990484148346779</v>
+        <v>0.9917829357034532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9959105739383357</v>
+        <v>0.9964546376082618</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9926568150162266</v>
+        <v>0.9935453628626348</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9919357188998649</v>
+        <v>0.9929116505919509</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8674457046760374</v>
+        <v>0.8785558378176582</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.007797707337886095</v>
+        <v>0.007054299581795931</v>
       </c>
       <c r="C3" t="n">
-        <v>8.78019563970156e-05</v>
+        <v>7.72136845625937e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>8.629442891106009e-05</v>
+        <v>7.579336670460179e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>5.586674160440452e-05</v>
+        <v>4.824167990591377e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>7.661642302991822e-05</v>
+        <v>6.705630948999897e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001102361784433015</v>
+        <v>9.689725993666798e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>9.950067578756716e-07</v>
+        <v>8.745918762542715e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>146.8465423583984</v>
+        <v>134.5385284423828</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08830463141202927</v>
+        <v>0.08398988097906113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009370270185172558</v>
+        <v>0.008787131868302822</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009289479814469814</v>
+        <v>0.00870593823492527</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007474405691027641</v>
+        <v>0.006945623084902763</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008709228597581387</v>
+        <v>0.008144588209688663</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01049934141337872</v>
+        <v>0.009843640960752964</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009975002612918615</v>
+        <v>0.0009351961780339479</v>
       </c>
       <c r="I4" t="n">
-        <v>12.11802577972412</v>
+        <v>11.5990743637085</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02054189890623093</v>
+        <v>0.01926547475159168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003222700441256166</v>
+        <v>0.002964772982522845</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003290718654170632</v>
+        <v>0.003025685669854283</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002591899130493402</v>
+        <v>0.002364977030083537</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00303507037460804</v>
+        <v>0.002785254968330264</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003681626636534929</v>
+        <v>0.003383800620213151</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0004179669485893101</v>
+        <v>0.0003872609813697636</v>
       </c>
       <c r="I5" t="n">
-        <v>3.168624639511108</v>
+        <v>2.974501132965088</v>
       </c>
     </row>
   </sheetData>
